--- a/input_parameters.xlsx
+++ b/input_parameters.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/yue012_e_ntu_edu_sg/Documents/Wu Yue_Personal/1_Procurment opt/6_price_SAA/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{D028978B-055C-4D79-A862-13E3C4ADC3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EB63651-B762-464A-AD25-F4DF37C6F529}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="10980" tabRatio="1000"/>
+    <workbookView xWindow="5200" yWindow="500" windowWidth="15600" windowHeight="12920" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supplier" sheetId="1" r:id="rId1"/>
@@ -17,8 +23,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">capacity!$A$1:$D$49</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -35,12 +44,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Victoria WU</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{55ED17FA-B30D-41F4-B961-BECB8EEBE3DE}">
       <text>
         <r>
           <rPr>
@@ -48,7 +57,7 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>Victoria WU:</t>
         </r>
@@ -57,10 +66,19 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-211
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">211
 </t>
         </r>
       </text>
@@ -111,164 +129,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="8"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,16 +160,23 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,198 +191,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -499,318 +210,40 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -856,7 +289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -891,7 +324,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1065,55 +498,59 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82857142857143" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.66666666666667" customWidth="1"/>
-    <col min="3" max="3" width="9.82857142857143" customWidth="1"/>
-    <col min="4" max="4" width="9.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>2</v>
       </c>
       <c r="C2">
@@ -1125,35 +562,35 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>4</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>7</v>
       </c>
       <c r="C4">
@@ -1165,439 +602,437 @@
       <c r="E4">
         <v>2</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="4"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="4"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="4"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="4"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="4"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="4"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="4"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="4"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="4"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="4"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="4"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="4"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="4"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="4"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="4"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="4"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="4"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="4"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="4"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="4"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="4"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="4"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="4"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="4"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="4"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="4"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="4"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="4"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="4"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="4"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="4"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="4"/>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="4"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="4"/>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="4"/>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="4"/>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="4"/>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="4"/>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="4"/>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="4"/>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="4"/>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="4"/>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="4"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="4"/>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="4"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="4"/>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="4"/>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="4"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="4"/>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="4"/>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="4"/>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="4"/>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="4"/>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="4"/>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="4"/>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="4"/>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="4"/>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="4"/>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="4"/>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="4"/>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="4"/>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="4"/>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="4"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="7"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="7"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="7"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="7"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="7"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="7"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="7"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="7"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="7"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="7"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="7"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="7"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="7"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="7"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="7"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="7"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="7"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="7"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="7"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="7"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="7"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="7"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="7"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="7"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="7"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="7"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="7"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="7"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="7"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="7"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="7"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="7"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="7"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="7"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="7"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="7"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="7"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="7"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="7"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="7"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="7"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="7"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="7"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="7"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="7"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="7"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDCDF9A-850F-4D9C-BE37-D25EE7F0D51A}">
   <dimension ref="A1:CW50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82857142857143" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.5047619047619" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.82857142857143" style="1"/>
+    <col min="2" max="2" width="8.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="4"/>
-      <c r="BO1" s="4"/>
-      <c r="BP1" s="4"/>
-      <c r="BQ1" s="4"/>
-      <c r="BR1" s="4"/>
-      <c r="BS1" s="4"/>
-      <c r="BT1" s="4"/>
-      <c r="BU1" s="4"/>
-      <c r="BV1" s="4"/>
-      <c r="BW1" s="4"/>
-      <c r="BX1" s="4"/>
-      <c r="BY1" s="4"/>
-      <c r="BZ1" s="4"/>
-      <c r="CA1" s="4"/>
-      <c r="CB1" s="4"/>
-      <c r="CC1" s="4"/>
-      <c r="CD1" s="4"/>
-      <c r="CE1" s="4"/>
-      <c r="CF1" s="4"/>
-      <c r="CG1" s="4"/>
-      <c r="CH1" s="4"/>
-      <c r="CI1" s="4"/>
-      <c r="CJ1" s="4"/>
-      <c r="CK1" s="4"/>
-      <c r="CL1" s="4"/>
-      <c r="CM1" s="4"/>
-      <c r="CN1" s="4"/>
-      <c r="CO1" s="4"/>
-      <c r="CP1" s="4"/>
-      <c r="CQ1" s="4"/>
-      <c r="CR1" s="4"/>
-      <c r="CS1" s="4"/>
-      <c r="CT1" s="4"/>
-      <c r="CU1" s="4"/>
-      <c r="CV1" s="4"/>
-      <c r="CW1" s="4"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="7"/>
+      <c r="BG1" s="7"/>
+      <c r="BH1" s="7"/>
+      <c r="BI1" s="7"/>
+      <c r="BJ1" s="7"/>
+      <c r="BK1" s="7"/>
+      <c r="BL1" s="7"/>
+      <c r="BM1" s="7"/>
+      <c r="BN1" s="7"/>
+      <c r="BO1" s="7"/>
+      <c r="BP1" s="7"/>
+      <c r="BQ1" s="7"/>
+      <c r="BR1" s="7"/>
+      <c r="BS1" s="7"/>
+      <c r="BT1" s="7"/>
+      <c r="BU1" s="7"/>
+      <c r="BV1" s="7"/>
+      <c r="BW1" s="7"/>
+      <c r="BX1" s="7"/>
+      <c r="BY1" s="7"/>
+      <c r="BZ1" s="7"/>
+      <c r="CA1" s="7"/>
+      <c r="CB1" s="7"/>
+      <c r="CC1" s="7"/>
+      <c r="CD1" s="7"/>
+      <c r="CE1" s="7"/>
+      <c r="CF1" s="7"/>
+      <c r="CG1" s="7"/>
+      <c r="CH1" s="7"/>
+      <c r="CI1" s="7"/>
+      <c r="CJ1" s="7"/>
+      <c r="CK1" s="7"/>
+      <c r="CL1" s="7"/>
+      <c r="CM1" s="7"/>
+      <c r="CN1" s="7"/>
+      <c r="CO1" s="7"/>
+      <c r="CP1" s="7"/>
+      <c r="CQ1" s="7"/>
+      <c r="CR1" s="7"/>
+      <c r="CS1" s="7"/>
+      <c r="CT1" s="7"/>
+      <c r="CU1" s="7"/>
+      <c r="CV1" s="7"/>
+      <c r="CW1" s="7"/>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
@@ -1611,8 +1046,8 @@
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
@@ -1626,8 +1061,8 @@
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
@@ -1641,8 +1076,8 @@
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
@@ -1656,8 +1091,8 @@
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
@@ -1671,8 +1106,8 @@
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
@@ -1686,8 +1121,8 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
@@ -1701,8 +1136,8 @@
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
@@ -1716,815 +1151,811 @@
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="C10" s="5"/>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="C10" s="4"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="C11" s="5"/>
+    <row r="11" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="C11" s="4"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
-      <c r="C14" s="5"/>
+    <row r="12" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="C14" s="4"/>
       <c r="F14"/>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2"/>
-      <c r="C20" s="5"/>
+    <row r="15" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="C20" s="4"/>
       <c r="F20"/>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="2"/>
-      <c r="C26" s="5"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="C26" s="4"/>
       <c r="F26"/>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="2"/>
-      <c r="C32" s="5"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="C32" s="4"/>
       <c r="F32"/>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2"/>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2"/>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2"/>
-      <c r="C38" s="5"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="C38" s="4"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2"/>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2"/>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2"/>
-      <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2"/>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2"/>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="2"/>
-      <c r="C44" s="5"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="C44" s="4"/>
       <c r="F44"/>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2"/>
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2"/>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2"/>
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2"/>
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2"/>
-      <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="6:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F50"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D49" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:D49" xr:uid="{9FDCDF9A-850F-4D9C-BE37-D25EE7F0D51A}"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22FC6CA-E2FE-4A18-86AC-B5A01E8CEF8D}">
   <dimension ref="A1:GS49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="CV2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="DA37" sqref="DA37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82857142857143" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="10" width="12" customWidth="1"/>
-    <col min="11" max="100" width="12.6666666666667" customWidth="1"/>
-    <col min="101" max="101" width="13.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="100" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:201">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="1">
         <v>12</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="1">
         <v>13</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="1">
         <v>14</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="1">
         <v>15</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="1">
         <v>16</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="1">
         <v>17</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="1">
         <v>18</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="1">
         <v>19</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="1">
         <v>20</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="1">
         <v>21</v>
       </c>
-      <c r="W1" s="2">
+      <c r="W1" s="1">
         <v>22</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="1">
         <v>23</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Y1" s="1">
         <v>24</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Z1" s="1">
         <v>25</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AA1" s="1">
         <v>26</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AB1" s="1">
         <v>27</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AC1" s="1">
         <v>28</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AD1" s="1">
         <v>29</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AE1" s="1">
         <v>30</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AF1" s="1">
         <v>31</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AG1" s="1">
         <v>32</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AH1" s="1">
         <v>33</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AI1" s="1">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AJ1" s="1">
         <v>35</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AK1" s="1">
         <v>36</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AL1" s="1">
         <v>37</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AM1" s="1">
         <v>38</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AN1" s="1">
         <v>39</v>
       </c>
-      <c r="AO1" s="2">
+      <c r="AO1" s="1">
         <v>40</v>
       </c>
-      <c r="AP1" s="2">
+      <c r="AP1" s="1">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2">
+      <c r="AQ1" s="1">
         <v>42</v>
       </c>
-      <c r="AR1" s="2">
+      <c r="AR1" s="1">
         <v>43</v>
       </c>
-      <c r="AS1" s="2">
+      <c r="AS1" s="1">
         <v>44</v>
       </c>
-      <c r="AT1" s="2">
+      <c r="AT1" s="1">
         <v>45</v>
       </c>
-      <c r="AU1" s="2">
+      <c r="AU1" s="1">
         <v>46</v>
       </c>
-      <c r="AV1" s="2">
+      <c r="AV1" s="1">
         <v>47</v>
       </c>
-      <c r="AW1" s="2">
+      <c r="AW1" s="1">
         <v>48</v>
       </c>
-      <c r="AX1" s="2">
+      <c r="AX1" s="1">
         <v>49</v>
       </c>
-      <c r="AY1" s="2">
+      <c r="AY1" s="1">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="AZ1" s="1">
         <v>51</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BA1" s="1">
         <v>52</v>
       </c>
-      <c r="BB1" s="2">
+      <c r="BB1" s="1">
         <v>53</v>
       </c>
-      <c r="BC1" s="2">
+      <c r="BC1" s="1">
         <v>54</v>
       </c>
-      <c r="BD1" s="2">
+      <c r="BD1" s="1">
         <v>55</v>
       </c>
-      <c r="BE1" s="2">
+      <c r="BE1" s="1">
         <v>56</v>
       </c>
-      <c r="BF1" s="2">
+      <c r="BF1" s="1">
         <v>57</v>
       </c>
-      <c r="BG1" s="2">
+      <c r="BG1" s="1">
         <v>58</v>
       </c>
-      <c r="BH1" s="2">
+      <c r="BH1" s="1">
         <v>59</v>
       </c>
-      <c r="BI1" s="2">
+      <c r="BI1" s="1">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="BJ1" s="1">
         <v>61</v>
       </c>
-      <c r="BK1" s="2">
+      <c r="BK1" s="1">
         <v>62</v>
       </c>
-      <c r="BL1" s="2">
+      <c r="BL1" s="1">
         <v>63</v>
       </c>
-      <c r="BM1" s="2">
+      <c r="BM1" s="1">
         <v>64</v>
       </c>
-      <c r="BN1" s="2">
+      <c r="BN1" s="1">
         <v>65</v>
       </c>
-      <c r="BO1" s="2">
+      <c r="BO1" s="1">
         <v>66</v>
       </c>
-      <c r="BP1" s="2">
+      <c r="BP1" s="1">
         <v>67</v>
       </c>
-      <c r="BQ1" s="2">
+      <c r="BQ1" s="1">
         <v>68</v>
       </c>
-      <c r="BR1" s="2">
+      <c r="BR1" s="1">
         <v>69</v>
       </c>
-      <c r="BS1" s="2">
+      <c r="BS1" s="1">
         <v>70</v>
       </c>
-      <c r="BT1" s="2">
+      <c r="BT1" s="1">
         <v>71</v>
       </c>
-      <c r="BU1" s="2">
+      <c r="BU1" s="1">
         <v>72</v>
       </c>
-      <c r="BV1" s="2">
+      <c r="BV1" s="1">
         <v>73</v>
       </c>
-      <c r="BW1" s="2">
+      <c r="BW1" s="1">
         <v>74</v>
       </c>
-      <c r="BX1" s="2">
+      <c r="BX1" s="1">
         <v>75</v>
       </c>
-      <c r="BY1" s="2">
+      <c r="BY1" s="1">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2">
+      <c r="BZ1" s="1">
         <v>77</v>
       </c>
-      <c r="CA1" s="2">
+      <c r="CA1" s="1">
         <v>78</v>
       </c>
-      <c r="CB1" s="2">
+      <c r="CB1" s="1">
         <v>79</v>
       </c>
-      <c r="CC1" s="2">
+      <c r="CC1" s="1">
         <v>80</v>
       </c>
-      <c r="CD1" s="2">
+      <c r="CD1" s="1">
         <v>81</v>
       </c>
-      <c r="CE1" s="2">
+      <c r="CE1" s="1">
         <v>82</v>
       </c>
-      <c r="CF1" s="2">
+      <c r="CF1" s="1">
         <v>83</v>
       </c>
-      <c r="CG1" s="2">
+      <c r="CG1" s="1">
         <v>84</v>
       </c>
-      <c r="CH1" s="2">
+      <c r="CH1" s="1">
         <v>85</v>
       </c>
-      <c r="CI1" s="2">
+      <c r="CI1" s="1">
         <v>86</v>
       </c>
-      <c r="CJ1" s="2">
+      <c r="CJ1" s="1">
         <v>87</v>
       </c>
-      <c r="CK1" s="2">
+      <c r="CK1" s="1">
         <v>88</v>
       </c>
-      <c r="CL1" s="2">
+      <c r="CL1" s="1">
         <v>89</v>
       </c>
-      <c r="CM1" s="2">
+      <c r="CM1" s="1">
         <v>90</v>
       </c>
-      <c r="CN1" s="2">
+      <c r="CN1" s="1">
         <v>91</v>
       </c>
-      <c r="CO1" s="2">
+      <c r="CO1" s="1">
         <v>92</v>
       </c>
-      <c r="CP1" s="2">
+      <c r="CP1" s="1">
         <v>93</v>
       </c>
-      <c r="CQ1" s="2">
+      <c r="CQ1" s="1">
         <v>94</v>
       </c>
-      <c r="CR1" s="2">
+      <c r="CR1" s="1">
         <v>95</v>
       </c>
-      <c r="CS1" s="2">
+      <c r="CS1" s="1">
         <v>96</v>
       </c>
-      <c r="CT1" s="2">
+      <c r="CT1" s="1">
         <v>97</v>
       </c>
-      <c r="CU1" s="2">
+      <c r="CU1" s="1">
         <v>98</v>
       </c>
-      <c r="CV1" s="2">
+      <c r="CV1" s="1">
         <v>99</v>
       </c>
-      <c r="CW1" s="2">
+      <c r="CW1" s="1">
         <v>100</v>
       </c>
-      <c r="CX1" s="2">
+      <c r="CX1" s="1">
         <v>101</v>
       </c>
-      <c r="CY1" s="2">
+      <c r="CY1" s="1">
         <v>102</v>
       </c>
-      <c r="CZ1" s="2">
+      <c r="CZ1" s="1">
         <v>103</v>
       </c>
-      <c r="DA1" s="2">
+      <c r="DA1" s="1">
         <v>104</v>
       </c>
-      <c r="DB1" s="2">
+      <c r="DB1" s="1">
         <v>105</v>
       </c>
-      <c r="DC1" s="2">
+      <c r="DC1" s="1">
         <v>106</v>
       </c>
-      <c r="DD1" s="2">
+      <c r="DD1" s="1">
         <v>107</v>
       </c>
-      <c r="DE1" s="2">
+      <c r="DE1" s="1">
         <v>108</v>
       </c>
-      <c r="DF1" s="2">
+      <c r="DF1" s="1">
         <v>109</v>
       </c>
-      <c r="DG1" s="2">
+      <c r="DG1" s="1">
         <v>110</v>
       </c>
-      <c r="DH1" s="2">
+      <c r="DH1" s="1">
         <v>111</v>
       </c>
-      <c r="DI1" s="2">
+      <c r="DI1" s="1">
         <v>112</v>
       </c>
-      <c r="DJ1" s="2">
+      <c r="DJ1" s="1">
         <v>113</v>
       </c>
-      <c r="DK1" s="2">
+      <c r="DK1" s="1">
         <v>114</v>
       </c>
-      <c r="DL1" s="2">
+      <c r="DL1" s="1">
         <v>115</v>
       </c>
-      <c r="DM1" s="2">
+      <c r="DM1" s="1">
         <v>116</v>
       </c>
-      <c r="DN1" s="2">
+      <c r="DN1" s="1">
         <v>117</v>
       </c>
-      <c r="DO1" s="2">
+      <c r="DO1" s="1">
         <v>118</v>
       </c>
-      <c r="DP1" s="2">
+      <c r="DP1" s="1">
         <v>119</v>
       </c>
-      <c r="DQ1" s="2">
+      <c r="DQ1" s="1">
         <v>120</v>
       </c>
-      <c r="DR1" s="2">
+      <c r="DR1" s="1">
         <v>121</v>
       </c>
-      <c r="DS1" s="2">
+      <c r="DS1" s="1">
         <v>122</v>
       </c>
-      <c r="DT1" s="2">
+      <c r="DT1" s="1">
         <v>123</v>
       </c>
-      <c r="DU1" s="2">
+      <c r="DU1" s="1">
         <v>124</v>
       </c>
-      <c r="DV1" s="2">
+      <c r="DV1" s="1">
         <v>125</v>
       </c>
-      <c r="DW1" s="2">
+      <c r="DW1" s="1">
         <v>126</v>
       </c>
-      <c r="DX1" s="2">
+      <c r="DX1" s="1">
         <v>127</v>
       </c>
-      <c r="DY1" s="2">
+      <c r="DY1" s="1">
         <v>128</v>
       </c>
-      <c r="DZ1" s="2">
+      <c r="DZ1" s="1">
         <v>129</v>
       </c>
-      <c r="EA1" s="2">
+      <c r="EA1" s="1">
         <v>130</v>
       </c>
-      <c r="EB1" s="2">
+      <c r="EB1" s="1">
         <v>131</v>
       </c>
-      <c r="EC1" s="2">
+      <c r="EC1" s="1">
         <v>132</v>
       </c>
-      <c r="ED1" s="2">
+      <c r="ED1" s="1">
         <v>133</v>
       </c>
-      <c r="EE1" s="2">
+      <c r="EE1" s="1">
         <v>134</v>
       </c>
-      <c r="EF1" s="2">
+      <c r="EF1" s="1">
         <v>135</v>
       </c>
-      <c r="EG1" s="2">
+      <c r="EG1" s="1">
         <v>136</v>
       </c>
-      <c r="EH1" s="2">
+      <c r="EH1" s="1">
         <v>137</v>
       </c>
-      <c r="EI1" s="2">
+      <c r="EI1" s="1">
         <v>138</v>
       </c>
-      <c r="EJ1" s="2">
+      <c r="EJ1" s="1">
         <v>139</v>
       </c>
-      <c r="EK1" s="2">
+      <c r="EK1" s="1">
         <v>140</v>
       </c>
-      <c r="EL1" s="2">
+      <c r="EL1" s="1">
         <v>141</v>
       </c>
-      <c r="EM1" s="2">
+      <c r="EM1" s="1">
         <v>142</v>
       </c>
-      <c r="EN1" s="2">
+      <c r="EN1" s="1">
         <v>143</v>
       </c>
-      <c r="EO1" s="2">
+      <c r="EO1" s="1">
         <v>144</v>
       </c>
-      <c r="EP1" s="2">
+      <c r="EP1" s="1">
         <v>145</v>
       </c>
-      <c r="EQ1" s="2">
+      <c r="EQ1" s="1">
         <v>146</v>
       </c>
-      <c r="ER1" s="2">
+      <c r="ER1" s="1">
         <v>147</v>
       </c>
-      <c r="ES1" s="2">
+      <c r="ES1" s="1">
         <v>148</v>
       </c>
-      <c r="ET1" s="2">
+      <c r="ET1" s="1">
         <v>149</v>
       </c>
-      <c r="EU1" s="2">
+      <c r="EU1" s="1">
         <v>150</v>
       </c>
-      <c r="EV1" s="2">
+      <c r="EV1" s="1">
         <v>151</v>
       </c>
-      <c r="EW1" s="2">
+      <c r="EW1" s="1">
         <v>152</v>
       </c>
-      <c r="EX1" s="2">
+      <c r="EX1" s="1">
         <v>153</v>
       </c>
-      <c r="EY1" s="2">
+      <c r="EY1" s="1">
         <v>154</v>
       </c>
-      <c r="EZ1" s="2">
+      <c r="EZ1" s="1">
         <v>155</v>
       </c>
-      <c r="FA1" s="2">
+      <c r="FA1" s="1">
         <v>156</v>
       </c>
-      <c r="FB1" s="2">
+      <c r="FB1" s="1">
         <v>157</v>
       </c>
-      <c r="FC1" s="2">
+      <c r="FC1" s="1">
         <v>158</v>
       </c>
-      <c r="FD1" s="2">
+      <c r="FD1" s="1">
         <v>159</v>
       </c>
-      <c r="FE1" s="2">
+      <c r="FE1" s="1">
         <v>160</v>
       </c>
-      <c r="FF1" s="2">
+      <c r="FF1" s="1">
         <v>161</v>
       </c>
-      <c r="FG1" s="2">
+      <c r="FG1" s="1">
         <v>162</v>
       </c>
-      <c r="FH1" s="2">
+      <c r="FH1" s="1">
         <v>163</v>
       </c>
-      <c r="FI1" s="2">
+      <c r="FI1" s="1">
         <v>164</v>
       </c>
-      <c r="FJ1" s="2">
+      <c r="FJ1" s="1">
         <v>165</v>
       </c>
-      <c r="FK1" s="2">
+      <c r="FK1" s="1">
         <v>166</v>
       </c>
-      <c r="FL1" s="2">
+      <c r="FL1" s="1">
         <v>167</v>
       </c>
-      <c r="FM1" s="2">
+      <c r="FM1" s="1">
         <v>168</v>
       </c>
-      <c r="FN1" s="2">
+      <c r="FN1" s="1">
         <v>169</v>
       </c>
-      <c r="FO1" s="2">
+      <c r="FO1" s="1">
         <v>170</v>
       </c>
-      <c r="FP1" s="2">
+      <c r="FP1" s="1">
         <v>171</v>
       </c>
-      <c r="FQ1" s="2">
+      <c r="FQ1" s="1">
         <v>172</v>
       </c>
-      <c r="FR1" s="2">
+      <c r="FR1" s="1">
         <v>173</v>
       </c>
-      <c r="FS1" s="2">
+      <c r="FS1" s="1">
         <v>174</v>
       </c>
-      <c r="FT1" s="2">
+      <c r="FT1" s="1">
         <v>175</v>
       </c>
-      <c r="FU1" s="2">
+      <c r="FU1" s="1">
         <v>176</v>
       </c>
-      <c r="FV1" s="2">
+      <c r="FV1" s="1">
         <v>177</v>
       </c>
-      <c r="FW1" s="2">
+      <c r="FW1" s="1">
         <v>178</v>
       </c>
-      <c r="FX1" s="2">
+      <c r="FX1" s="1">
         <v>179</v>
       </c>
-      <c r="FY1" s="2">
+      <c r="FY1" s="1">
         <v>180</v>
       </c>
-      <c r="FZ1" s="2">
+      <c r="FZ1" s="1">
         <v>181</v>
       </c>
-      <c r="GA1" s="2">
+      <c r="GA1" s="1">
         <v>182</v>
       </c>
-      <c r="GB1" s="2">
+      <c r="GB1" s="1">
         <v>183</v>
       </c>
-      <c r="GC1" s="2">
+      <c r="GC1" s="1">
         <v>184</v>
       </c>
-      <c r="GD1" s="2">
+      <c r="GD1" s="1">
         <v>185</v>
       </c>
-      <c r="GE1" s="2">
+      <c r="GE1" s="1">
         <v>186</v>
       </c>
-      <c r="GF1" s="2">
+      <c r="GF1" s="1">
         <v>187</v>
       </c>
-      <c r="GG1" s="2">
+      <c r="GG1" s="1">
         <v>188</v>
       </c>
-      <c r="GH1" s="2">
+      <c r="GH1" s="1">
         <v>189</v>
       </c>
-      <c r="GI1" s="2">
+      <c r="GI1" s="1">
         <v>190</v>
       </c>
-      <c r="GJ1" s="2">
+      <c r="GJ1" s="1">
         <v>191</v>
       </c>
-      <c r="GK1" s="2">
+      <c r="GK1" s="1">
         <v>192</v>
       </c>
-      <c r="GL1" s="2">
+      <c r="GL1" s="1">
         <v>193</v>
       </c>
-      <c r="GM1" s="2">
+      <c r="GM1" s="1">
         <v>194</v>
       </c>
-      <c r="GN1" s="2">
+      <c r="GN1" s="1">
         <v>195</v>
       </c>
-      <c r="GO1" s="2">
+      <c r="GO1" s="1">
         <v>196</v>
       </c>
-      <c r="GP1" s="2">
+      <c r="GP1" s="1">
         <v>197</v>
       </c>
-      <c r="GQ1" s="2">
+      <c r="GQ1" s="1">
         <v>198</v>
       </c>
-      <c r="GR1" s="2">
+      <c r="GR1" s="1">
         <v>199</v>
       </c>
-      <c r="GS1" s="2">
+      <c r="GS1" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:201">
-      <c r="A2" s="2">
+    <row r="2" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
@@ -3228,8 +2659,8 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="3" spans="1:101">
-      <c r="A3" s="2">
+    <row r="3" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
@@ -3533,8 +2964,8 @@
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:101">
-      <c r="A4" s="2">
+    <row r="4" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
@@ -3838,8 +3269,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:101">
-      <c r="A5" s="2">
+    <row r="5" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
@@ -4143,8 +3574,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:101">
-      <c r="A6" s="2">
+    <row r="6" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
@@ -4448,8 +3879,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:101">
-      <c r="A7" s="2">
+    <row r="7" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
@@ -4753,8 +4184,8 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:201">
-      <c r="A8" s="2">
+    <row r="8" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8">
@@ -5458,8 +4889,8 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="9" spans="1:101">
-      <c r="A9" s="2">
+    <row r="9" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9">
@@ -5763,8 +5194,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:101">
-      <c r="A10" s="2">
+    <row r="10" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10">
@@ -6068,8 +5499,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:101">
-      <c r="A11" s="2">
+    <row r="11" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11">
@@ -6373,8 +5804,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:101">
-      <c r="A12" s="2">
+    <row r="12" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12">
@@ -6678,8 +6109,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:101">
-      <c r="A13" s="2">
+    <row r="13" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13">
@@ -6983,8 +6414,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:201">
-      <c r="A14" s="2">
+    <row r="14" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14">
@@ -7688,8 +7119,8 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="15" spans="1:101">
-      <c r="A15" s="2">
+    <row r="15" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15">
@@ -7993,8 +7424,8 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:101">
-      <c r="A16" s="2">
+    <row r="16" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16">
@@ -8298,8 +7729,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:101">
-      <c r="A17" s="2">
+    <row r="17" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17">
@@ -8603,8 +8034,8 @@
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="1:101">
-      <c r="A18" s="2">
+    <row r="18" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18">
@@ -8908,8 +8339,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:101">
-      <c r="A19" s="2">
+    <row r="19" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19">
@@ -9213,8 +8644,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:201">
-      <c r="A20" s="2">
+    <row r="20" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20">
@@ -9918,8 +9349,8 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="21" spans="1:101">
-      <c r="A21" s="2">
+    <row r="21" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21">
@@ -10223,8 +9654,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:101">
-      <c r="A22" s="2">
+    <row r="22" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22">
@@ -10528,8 +9959,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:101">
-      <c r="A23" s="2">
+    <row r="23" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23">
@@ -10833,8 +10264,8 @@
         <v>244</v>
       </c>
     </row>
-    <row r="24" spans="1:101">
-      <c r="A24" s="2">
+    <row r="24" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24">
@@ -11138,8 +10569,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:101">
-      <c r="A25" s="2">
+    <row r="25" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25">
@@ -11443,8 +10874,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:201">
-      <c r="A26" s="2">
+    <row r="26" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26">
@@ -12148,8 +11579,8 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="27" spans="1:101">
-      <c r="A27" s="2">
+    <row r="27" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27">
@@ -12453,8 +11884,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="28" spans="1:101">
-      <c r="A28" s="2">
+    <row r="28" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28">
@@ -12758,8 +12189,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:101">
-      <c r="A29" s="2">
+    <row r="29" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29">
@@ -13063,8 +12494,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="1:101">
-      <c r="A30" s="2">
+    <row r="30" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30">
@@ -13368,8 +12799,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="31" spans="1:101">
-      <c r="A31" s="2">
+    <row r="31" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31">
@@ -13673,8 +13104,8 @@
         <v>371</v>
       </c>
     </row>
-    <row r="32" spans="1:201">
-      <c r="A32" s="2">
+    <row r="32" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32">
@@ -14378,8 +13809,8 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="33" spans="1:101">
-      <c r="A33" s="2">
+    <row r="33" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33">
@@ -14683,8 +14114,8 @@
         <v>316</v>
       </c>
     </row>
-    <row r="34" spans="1:101">
-      <c r="A34" s="2">
+    <row r="34" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34">
@@ -14988,8 +14419,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="1:101">
-      <c r="A35" s="2">
+    <row r="35" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35">
@@ -15293,8 +14724,8 @@
         <v>428</v>
       </c>
     </row>
-    <row r="36" spans="1:101">
-      <c r="A36" s="2">
+    <row r="36" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36">
@@ -15598,8 +15029,8 @@
         <v>454</v>
       </c>
     </row>
-    <row r="37" spans="1:101">
-      <c r="A37" s="2">
+    <row r="37" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37">
@@ -15903,8 +15334,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="38" spans="1:201">
-      <c r="A38" s="2">
+    <row r="38" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38">
@@ -16608,8 +16039,8 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="39" spans="1:101">
-      <c r="A39" s="2">
+    <row r="39" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39">
@@ -16913,8 +16344,8 @@
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:101">
-      <c r="A40" s="2">
+    <row r="40" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40">
@@ -17218,8 +16649,8 @@
         <v>374</v>
       </c>
     </row>
-    <row r="41" spans="1:101">
-      <c r="A41" s="2">
+    <row r="41" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41">
@@ -17523,8 +16954,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="42" spans="1:101">
-      <c r="A42" s="2">
+    <row r="42" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42">
@@ -17828,8 +17259,8 @@
         <v>396</v>
       </c>
     </row>
-    <row r="43" spans="1:101">
-      <c r="A43" s="2">
+    <row r="43" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43">
@@ -18133,8 +17564,8 @@
         <v>421</v>
       </c>
     </row>
-    <row r="44" spans="1:201">
-      <c r="A44" s="2">
+    <row r="44" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44">
@@ -18838,8 +18269,8 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="45" spans="1:123">
-      <c r="A45" s="2">
+    <row r="45" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45">
@@ -19163,8 +18594,8 @@
       <c r="DR45" s="6"/>
       <c r="DS45" s="6"/>
     </row>
-    <row r="46" spans="1:123">
-      <c r="A46" s="2">
+    <row r="46" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46">
@@ -19488,8 +18919,8 @@
       <c r="DR46" s="6"/>
       <c r="DS46" s="6"/>
     </row>
-    <row r="47" spans="1:123">
-      <c r="A47" s="2">
+    <row r="47" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47">
@@ -19813,8 +19244,8 @@
       <c r="DR47" s="6"/>
       <c r="DS47" s="6"/>
     </row>
-    <row r="48" spans="1:123">
-      <c r="A48" s="2">
+    <row r="48" spans="1:201" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48">
@@ -20138,8 +19569,8 @@
       <c r="DR48" s="6"/>
       <c r="DS48" s="6"/>
     </row>
-    <row r="49" spans="1:123">
-      <c r="A49" s="2">
+    <row r="49" spans="1:123" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49">
@@ -20464,140 +19895,139 @@
       <c r="DS49" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3375D265-A821-E843-A47D-034187193DE2}">
   <dimension ref="A1:CW50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82857142857143" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.5047619047619" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.82857142857143" style="1"/>
+    <col min="2" max="2" width="8.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="4"/>
-      <c r="BO1" s="4"/>
-      <c r="BP1" s="4"/>
-      <c r="BQ1" s="4"/>
-      <c r="BR1" s="4"/>
-      <c r="BS1" s="4"/>
-      <c r="BT1" s="4"/>
-      <c r="BU1" s="4"/>
-      <c r="BV1" s="4"/>
-      <c r="BW1" s="4"/>
-      <c r="BX1" s="4"/>
-      <c r="BY1" s="4"/>
-      <c r="BZ1" s="4"/>
-      <c r="CA1" s="4"/>
-      <c r="CB1" s="4"/>
-      <c r="CC1" s="4"/>
-      <c r="CD1" s="4"/>
-      <c r="CE1" s="4"/>
-      <c r="CF1" s="4"/>
-      <c r="CG1" s="4"/>
-      <c r="CH1" s="4"/>
-      <c r="CI1" s="4"/>
-      <c r="CJ1" s="4"/>
-      <c r="CK1" s="4"/>
-      <c r="CL1" s="4"/>
-      <c r="CM1" s="4"/>
-      <c r="CN1" s="4"/>
-      <c r="CO1" s="4"/>
-      <c r="CP1" s="4"/>
-      <c r="CQ1" s="4"/>
-      <c r="CR1" s="4"/>
-      <c r="CS1" s="4"/>
-      <c r="CT1" s="4"/>
-      <c r="CU1" s="4"/>
-      <c r="CV1" s="4"/>
-      <c r="CW1" s="4"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="7"/>
+      <c r="BG1" s="7"/>
+      <c r="BH1" s="7"/>
+      <c r="BI1" s="7"/>
+      <c r="BJ1" s="7"/>
+      <c r="BK1" s="7"/>
+      <c r="BL1" s="7"/>
+      <c r="BM1" s="7"/>
+      <c r="BN1" s="7"/>
+      <c r="BO1" s="7"/>
+      <c r="BP1" s="7"/>
+      <c r="BQ1" s="7"/>
+      <c r="BR1" s="7"/>
+      <c r="BS1" s="7"/>
+      <c r="BT1" s="7"/>
+      <c r="BU1" s="7"/>
+      <c r="BV1" s="7"/>
+      <c r="BW1" s="7"/>
+      <c r="BX1" s="7"/>
+      <c r="BY1" s="7"/>
+      <c r="BZ1" s="7"/>
+      <c r="CA1" s="7"/>
+      <c r="CB1" s="7"/>
+      <c r="CC1" s="7"/>
+      <c r="CD1" s="7"/>
+      <c r="CE1" s="7"/>
+      <c r="CF1" s="7"/>
+      <c r="CG1" s="7"/>
+      <c r="CH1" s="7"/>
+      <c r="CI1" s="7"/>
+      <c r="CJ1" s="7"/>
+      <c r="CK1" s="7"/>
+      <c r="CL1" s="7"/>
+      <c r="CM1" s="7"/>
+      <c r="CN1" s="7"/>
+      <c r="CO1" s="7"/>
+      <c r="CP1" s="7"/>
+      <c r="CQ1" s="7"/>
+      <c r="CR1" s="7"/>
+      <c r="CS1" s="7"/>
+      <c r="CT1" s="7"/>
+      <c r="CU1" s="7"/>
+      <c r="CV1" s="7"/>
+      <c r="CW1" s="7"/>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
@@ -20622,14 +20052,14 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>334</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>446</v>
       </c>
       <c r="D3">
@@ -20637,14 +20067,14 @@
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>383</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>360</v>
       </c>
       <c r="D4">
@@ -20652,14 +20082,14 @@
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>392</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>422</v>
       </c>
       <c r="D5">
@@ -20667,14 +20097,14 @@
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>255</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>476</v>
       </c>
       <c r="D6">
@@ -20682,14 +20112,14 @@
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>369</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>501</v>
       </c>
       <c r="D7">
@@ -20697,14 +20127,14 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>285</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>472</v>
       </c>
       <c r="D8">
@@ -20723,14 +20153,14 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>313</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>424</v>
       </c>
       <c r="D9">
@@ -20738,14 +20168,14 @@
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>346</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>385</v>
       </c>
       <c r="D10">
@@ -20753,14 +20183,14 @@
       </c>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>287</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>420</v>
       </c>
       <c r="D11">
@@ -20768,42 +20198,42 @@
       </c>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>305</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>378</v>
       </c>
       <c r="D12">
         <v>293</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>412</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>413</v>
       </c>
       <c r="D13">
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>199</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>353</v>
       </c>
       <c r="D14">
@@ -20822,84 +20252,84 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>380</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>399</v>
       </c>
       <c r="D15">
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>295</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>397</v>
       </c>
       <c r="D16">
         <v>326</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>284</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>342</v>
       </c>
       <c r="D17">
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>395</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>421</v>
       </c>
       <c r="D18">
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>436</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>380</v>
       </c>
       <c r="D19">
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>403</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>407</v>
       </c>
       <c r="D20">
@@ -20918,84 +20348,84 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>347</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>505</v>
       </c>
       <c r="D21">
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>303</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>363</v>
       </c>
       <c r="D22">
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>344</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>390</v>
       </c>
       <c r="D23">
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>317</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>449</v>
       </c>
       <c r="D24">
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>331</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>415</v>
       </c>
       <c r="D25">
         <v>352</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>337</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>318</v>
       </c>
       <c r="D26">
@@ -21014,84 +20444,84 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>374</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>329</v>
       </c>
       <c r="D27">
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>271</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>440</v>
       </c>
       <c r="D28">
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>378</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>373</v>
       </c>
       <c r="D29">
         <v>325</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>480</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>465</v>
       </c>
       <c r="D30">
         <v>377</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>335</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>380</v>
       </c>
       <c r="D31">
         <v>347</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>375</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>333</v>
       </c>
       <c r="D32">
@@ -21110,84 +20540,84 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>335</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>347</v>
       </c>
       <c r="D33">
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>356</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>310</v>
       </c>
       <c r="D34">
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>422</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>225</v>
       </c>
       <c r="D35">
         <v>316</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>297</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>465</v>
       </c>
       <c r="D36">
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>402</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>295</v>
       </c>
       <c r="D37">
         <v>370</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>320</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>333</v>
       </c>
       <c r="D38">
@@ -21206,84 +20636,84 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>280</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>486</v>
       </c>
       <c r="D39">
         <v>278</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>240</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>390</v>
       </c>
       <c r="D40">
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>371</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>406</v>
       </c>
       <c r="D41">
         <v>324</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>332</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>342</v>
       </c>
       <c r="D42">
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>410</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>471</v>
       </c>
       <c r="D43">
         <v>266</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>394</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>388</v>
       </c>
       <c r="D44">
@@ -21302,250 +20732,248 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>384</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>420</v>
       </c>
       <c r="D45">
         <v>285</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>366</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>332</v>
       </c>
       <c r="D46">
         <v>266</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>308</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>390</v>
       </c>
       <c r="D47">
         <v>212</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>240</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>307</v>
       </c>
       <c r="D48">
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>369</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>486</v>
       </c>
       <c r="D49">
         <v>324</v>
       </c>
     </row>
-    <row r="50" spans="6:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67559F08-A287-8246-92D8-1750BBCE7784}">
   <dimension ref="A1:CW51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82857142857143" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.5047619047619" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.82857142857143" style="1"/>
+    <col min="2" max="2" width="8.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <f>AVERAGE(B4:B51)</f>
-        <v>21.9791666666667</v>
-      </c>
-      <c r="C1" s="1">
+        <v>21.979166666666668</v>
+      </c>
+      <c r="C1" s="2">
         <f t="shared" ref="C1:D1" si="0">AVERAGE(C4:C51)</f>
         <v>24</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <f t="shared" si="0"/>
-        <v>21.4041666666667</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>21.404166666666669</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <f>STDEV(B4:B51)</f>
-        <v>3.73875382204338</v>
-      </c>
-      <c r="C2" s="1">
+        <v>3.7387538220433822</v>
+      </c>
+      <c r="C2" s="2">
         <f t="shared" ref="C2:D2" si="1">STDEV(C4:C51)</f>
-        <v>3.47636396008512</v>
-      </c>
-      <c r="D2" s="1">
+        <v>3.4763639600851239</v>
+      </c>
+      <c r="D2" s="2">
         <f t="shared" si="1"/>
-        <v>3.8017889592638</v>
-      </c>
-    </row>
-    <row r="3" spans="1:101">
-      <c r="A3" s="2" t="s">
+        <v>3.8017889592637855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
-      <c r="BF3" s="4"/>
-      <c r="BG3" s="4"/>
-      <c r="BH3" s="4"/>
-      <c r="BI3" s="4"/>
-      <c r="BJ3" s="4"/>
-      <c r="BK3" s="4"/>
-      <c r="BL3" s="4"/>
-      <c r="BM3" s="4"/>
-      <c r="BN3" s="4"/>
-      <c r="BO3" s="4"/>
-      <c r="BP3" s="4"/>
-      <c r="BQ3" s="4"/>
-      <c r="BR3" s="4"/>
-      <c r="BS3" s="4"/>
-      <c r="BT3" s="4"/>
-      <c r="BU3" s="4"/>
-      <c r="BV3" s="4"/>
-      <c r="BW3" s="4"/>
-      <c r="BX3" s="4"/>
-      <c r="BY3" s="4"/>
-      <c r="BZ3" s="4"/>
-      <c r="CA3" s="4"/>
-      <c r="CB3" s="4"/>
-      <c r="CC3" s="4"/>
-      <c r="CD3" s="4"/>
-      <c r="CE3" s="4"/>
-      <c r="CF3" s="4"/>
-      <c r="CG3" s="4"/>
-      <c r="CH3" s="4"/>
-      <c r="CI3" s="4"/>
-      <c r="CJ3" s="4"/>
-      <c r="CK3" s="4"/>
-      <c r="CL3" s="4"/>
-      <c r="CM3" s="4"/>
-      <c r="CN3" s="4"/>
-      <c r="CO3" s="4"/>
-      <c r="CP3" s="4"/>
-      <c r="CQ3" s="4"/>
-      <c r="CR3" s="4"/>
-      <c r="CS3" s="4"/>
-      <c r="CT3" s="4"/>
-      <c r="CU3" s="4"/>
-      <c r="CV3" s="4"/>
-      <c r="CW3" s="4"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="AX3" s="7"/>
+      <c r="AY3" s="7"/>
+      <c r="AZ3" s="7"/>
+      <c r="BA3" s="7"/>
+      <c r="BB3" s="7"/>
+      <c r="BC3" s="7"/>
+      <c r="BD3" s="7"/>
+      <c r="BE3" s="7"/>
+      <c r="BF3" s="7"/>
+      <c r="BG3" s="7"/>
+      <c r="BH3" s="7"/>
+      <c r="BI3" s="7"/>
+      <c r="BJ3" s="7"/>
+      <c r="BK3" s="7"/>
+      <c r="BL3" s="7"/>
+      <c r="BM3" s="7"/>
+      <c r="BN3" s="7"/>
+      <c r="BO3" s="7"/>
+      <c r="BP3" s="7"/>
+      <c r="BQ3" s="7"/>
+      <c r="BR3" s="7"/>
+      <c r="BS3" s="7"/>
+      <c r="BT3" s="7"/>
+      <c r="BU3" s="7"/>
+      <c r="BV3" s="7"/>
+      <c r="BW3" s="7"/>
+      <c r="BX3" s="7"/>
+      <c r="BY3" s="7"/>
+      <c r="BZ3" s="7"/>
+      <c r="CA3" s="7"/>
+      <c r="CB3" s="7"/>
+      <c r="CC3" s="7"/>
+      <c r="CD3" s="7"/>
+      <c r="CE3" s="7"/>
+      <c r="CF3" s="7"/>
+      <c r="CG3" s="7"/>
+      <c r="CH3" s="7"/>
+      <c r="CI3" s="7"/>
+      <c r="CJ3" s="7"/>
+      <c r="CK3" s="7"/>
+      <c r="CL3" s="7"/>
+      <c r="CM3" s="7"/>
+      <c r="CN3" s="7"/>
+      <c r="CO3" s="7"/>
+      <c r="CP3" s="7"/>
+      <c r="CQ3" s="7"/>
+      <c r="CR3" s="7"/>
+      <c r="CS3" s="7"/>
+      <c r="CT3" s="7"/>
+      <c r="CU3" s="7"/>
+      <c r="CV3" s="7"/>
+      <c r="CW3" s="7"/>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <f>1.1*20</f>
         <v>22</v>
       </c>
@@ -21555,17 +20983,17 @@
       </c>
       <c r="D4">
         <f>1.07*20</f>
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
+        <v>21.400000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>16</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>26</v>
       </c>
       <c r="D5">
@@ -21573,14 +21001,14 @@
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>25</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>23</v>
       </c>
       <c r="D6">
@@ -21588,14 +21016,14 @@
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>24</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>21</v>
       </c>
       <c r="D7">
@@ -21603,14 +21031,14 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>17</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>26</v>
       </c>
       <c r="D8">
@@ -21618,14 +21046,14 @@
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>21</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>21</v>
       </c>
       <c r="D9">
@@ -21633,14 +21061,14 @@
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>20</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>17</v>
       </c>
       <c r="D10">
@@ -21648,14 +21076,14 @@
       </c>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>20</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>28</v>
       </c>
       <c r="D11">
@@ -21663,14 +21091,14 @@
       </c>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>18</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>26</v>
       </c>
       <c r="D12">
@@ -21678,14 +21106,14 @@
       </c>
       <c r="F12"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>24</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>23</v>
       </c>
       <c r="D13">
@@ -21693,532 +21121,532 @@
       </c>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>23</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>18</v>
       </c>
       <c r="D14">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>26</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>27</v>
       </c>
       <c r="D15">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>25</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>21</v>
       </c>
       <c r="D16">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>28</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>30</v>
       </c>
       <c r="D17">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>26</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>26</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>21</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>21</v>
       </c>
       <c r="D19">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>23</v>
       </c>
       <c r="D20">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>27</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>29</v>
       </c>
       <c r="D21">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>26</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>24</v>
       </c>
       <c r="D22">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>23</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>17</v>
       </c>
       <c r="D23">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>18</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>25</v>
       </c>
       <c r="D24">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>16</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>25</v>
       </c>
       <c r="D25">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>23</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>22</v>
       </c>
       <c r="D26">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>27</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>31</v>
       </c>
       <c r="D27">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>23</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>27</v>
       </c>
       <c r="D28">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>27</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>21</v>
       </c>
       <c r="D29">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>25</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>27</v>
       </c>
       <c r="D30">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>19</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>22</v>
       </c>
       <c r="D31">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>20</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>27</v>
       </c>
       <c r="D32">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>15</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>30</v>
       </c>
       <c r="D33">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>19</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>24</v>
       </c>
       <c r="D34">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
         <v>32</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>25</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>28</v>
       </c>
       <c r="D35">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
         <v>33</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>25</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>26</v>
       </c>
       <c r="D36">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
         <v>34</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>16</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>22</v>
       </c>
       <c r="D37">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
         <v>35</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>25</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>19</v>
       </c>
       <c r="D38">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
         <v>36</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>16</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>23</v>
       </c>
       <c r="D39">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
         <v>37</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>22</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <v>19</v>
       </c>
       <c r="D40">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>38</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>26</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>26</v>
       </c>
       <c r="D41">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
         <v>39</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>16</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="4">
         <v>23</v>
       </c>
       <c r="D42">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
         <v>40</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>19</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="4">
         <v>27</v>
       </c>
       <c r="D43">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
         <v>41</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>22</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="4">
         <v>18</v>
       </c>
       <c r="D44">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
         <v>42</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>19</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>20</v>
       </c>
       <c r="D45">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>22</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="4">
         <v>24</v>
       </c>
       <c r="D46">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>44</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>19</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="4">
         <v>25</v>
       </c>
       <c r="D47">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>45</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>22</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="4">
         <v>25</v>
       </c>
       <c r="D48">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>46</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>27</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="4">
         <v>23</v>
       </c>
       <c r="D49">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>47</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>23</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="4">
         <v>25</v>
       </c>
       <c r="D50">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>48</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>28</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="4">
         <v>28</v>
       </c>
       <c r="D51">
@@ -22226,147 +21654,145 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F809BBDC-D129-4D10-916F-06F6B8AA5C3D}">
   <dimension ref="A1:CW49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.82857142857143" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.5047619047619" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.82857142857143" style="1"/>
+    <col min="2" max="2" width="8.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="4"/>
-      <c r="BO1" s="4"/>
-      <c r="BP1" s="4"/>
-      <c r="BQ1" s="4"/>
-      <c r="BR1" s="4"/>
-      <c r="BS1" s="4"/>
-      <c r="BT1" s="4"/>
-      <c r="BU1" s="4"/>
-      <c r="BV1" s="4"/>
-      <c r="BW1" s="4"/>
-      <c r="BX1" s="4"/>
-      <c r="BY1" s="4"/>
-      <c r="BZ1" s="4"/>
-      <c r="CA1" s="4"/>
-      <c r="CB1" s="4"/>
-      <c r="CC1" s="4"/>
-      <c r="CD1" s="4"/>
-      <c r="CE1" s="4"/>
-      <c r="CF1" s="4"/>
-      <c r="CG1" s="4"/>
-      <c r="CH1" s="4"/>
-      <c r="CI1" s="4"/>
-      <c r="CJ1" s="4"/>
-      <c r="CK1" s="4"/>
-      <c r="CL1" s="4"/>
-      <c r="CM1" s="4"/>
-      <c r="CN1" s="4"/>
-      <c r="CO1" s="4"/>
-      <c r="CP1" s="4"/>
-      <c r="CQ1" s="4"/>
-      <c r="CR1" s="4"/>
-      <c r="CS1" s="4"/>
-      <c r="CT1" s="4"/>
-      <c r="CU1" s="4"/>
-      <c r="CV1" s="4"/>
-      <c r="CW1" s="4"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7"/>
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="AX1" s="7"/>
+      <c r="AY1" s="7"/>
+      <c r="AZ1" s="7"/>
+      <c r="BA1" s="7"/>
+      <c r="BB1" s="7"/>
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="7"/>
+      <c r="BE1" s="7"/>
+      <c r="BF1" s="7"/>
+      <c r="BG1" s="7"/>
+      <c r="BH1" s="7"/>
+      <c r="BI1" s="7"/>
+      <c r="BJ1" s="7"/>
+      <c r="BK1" s="7"/>
+      <c r="BL1" s="7"/>
+      <c r="BM1" s="7"/>
+      <c r="BN1" s="7"/>
+      <c r="BO1" s="7"/>
+      <c r="BP1" s="7"/>
+      <c r="BQ1" s="7"/>
+      <c r="BR1" s="7"/>
+      <c r="BS1" s="7"/>
+      <c r="BT1" s="7"/>
+      <c r="BU1" s="7"/>
+      <c r="BV1" s="7"/>
+      <c r="BW1" s="7"/>
+      <c r="BX1" s="7"/>
+      <c r="BY1" s="7"/>
+      <c r="BZ1" s="7"/>
+      <c r="CA1" s="7"/>
+      <c r="CB1" s="7"/>
+      <c r="CC1" s="7"/>
+      <c r="CD1" s="7"/>
+      <c r="CE1" s="7"/>
+      <c r="CF1" s="7"/>
+      <c r="CG1" s="7"/>
+      <c r="CH1" s="7"/>
+      <c r="CI1" s="7"/>
+      <c r="CJ1" s="7"/>
+      <c r="CK1" s="7"/>
+      <c r="CL1" s="7"/>
+      <c r="CM1" s="7"/>
+      <c r="CN1" s="7"/>
+      <c r="CO1" s="7"/>
+      <c r="CP1" s="7"/>
+      <c r="CQ1" s="7"/>
+      <c r="CR1" s="7"/>
+      <c r="CS1" s="7"/>
+      <c r="CT1" s="7"/>
+      <c r="CU1" s="7"/>
+      <c r="CV1" s="7"/>
+      <c r="CW1" s="7"/>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <f>1.1*20</f>
         <v>22</v>
       </c>
@@ -22376,17 +21802,17 @@
       </c>
       <c r="D2">
         <f>1.07*20</f>
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2">
+        <v>21.400000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>16</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>26</v>
       </c>
       <c r="D3">
@@ -22394,14 +21820,14 @@
       </c>
       <c r="F3"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>25</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>23</v>
       </c>
       <c r="D4">
@@ -22409,14 +21835,14 @@
       </c>
       <c r="F4"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>24</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>21</v>
       </c>
       <c r="D5">
@@ -22424,14 +21850,14 @@
       </c>
       <c r="F5"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>17</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>26</v>
       </c>
       <c r="D6">
@@ -22439,14 +21865,14 @@
       </c>
       <c r="F6"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="2">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>21</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>21</v>
       </c>
       <c r="D7">
@@ -22454,14 +21880,14 @@
       </c>
       <c r="F7"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>20</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>17</v>
       </c>
       <c r="D8">
@@ -22469,14 +21895,14 @@
       </c>
       <c r="F8"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>20</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>28</v>
       </c>
       <c r="D9">
@@ -22484,170 +21910,176 @@
       </c>
       <c r="F9"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="C10" s="5"/>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="C10" s="4"/>
       <c r="F10"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="C11" s="5"/>
+    <row r="11" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="C11" s="4"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2"/>
-      <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2"/>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2"/>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2"/>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2"/>
-      <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2"/>
-      <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2"/>
-      <c r="C41" s="5"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2"/>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2"/>
-      <c r="C43" s="5"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2"/>
-      <c r="C44" s="5"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2"/>
-      <c r="C45" s="5"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2"/>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2"/>
-      <c r="C47" s="5"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2"/>
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2"/>
-      <c r="C49" s="5"/>
+    <row r="12" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:101" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="C49" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{15ce9348-be2a-462b-8fc0-e1765a9b204a}" enabled="0" method="" siteId="{15ce9348-be2a-462b-8fc0-e1765a9b204a}" removed="1"/>
+</clbl:labelList>
 </file>